--- a/data/users.xlsx
+++ b/data/users.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\sesac_project_git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\sesac_project_git\data\data_final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8ED0BF-0174-46D8-8DD7-7F0FD9E5E215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3B39B0-F1EE-4F87-85AC-48C88C6CF20E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15810" yWindow="2940" windowWidth="15810" windowHeight="12585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1815" yWindow="1620" windowWidth="15810" windowHeight="12585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="리뷰 테이블 데이터" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="56">
   <si>
     <t>USERID</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -201,12 +201,24 @@
   <si>
     <t>김락윤10</t>
   </si>
+  <si>
+    <t>EMAIL</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiathelove@naver.com</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>dbskim234@naver.com</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -378,6 +390,15 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -677,7 +698,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -804,6 +825,9 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -818,11 +842,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="42">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - 강조색1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 강조색2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - 강조색3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -865,6 +889,7 @@
     <cellStyle name="좋음" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="출력" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="42" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1176,25 +1201,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5001"/>
+  <dimension ref="A1:F5001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="3"/>
+    <col min="6" max="6" width="22.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" t="s">
         <v>3</v>
       </c>
       <c r="C1" t="s">
@@ -1206,12 +1232,15 @@
       <c r="E1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2">
         <v>1111</v>
       </c>
       <c r="C2" t="s">
@@ -1223,12 +1252,15 @@
       <c r="E2" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3">
         <v>1111</v>
       </c>
       <c r="C3" t="s">
@@ -1240,12 +1272,15 @@
       <c r="E3" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4">
         <v>1111</v>
       </c>
       <c r="C4" t="s">
@@ -1257,12 +1292,15 @@
       <c r="E4" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5">
         <v>1111</v>
       </c>
       <c r="C5" t="s">
@@ -1274,12 +1312,15 @@
       <c r="E5" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6">
         <v>1111</v>
       </c>
       <c r="C6" t="s">
@@ -1291,12 +1332,15 @@
       <c r="E6" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7">
         <v>1111</v>
       </c>
       <c r="C7" t="s">
@@ -1308,12 +1352,15 @@
       <c r="E7" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8">
         <v>1111</v>
       </c>
       <c r="C8" t="s">
@@ -1325,12 +1372,15 @@
       <c r="E8" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9">
         <v>1111</v>
       </c>
       <c r="C9" t="s">
@@ -1342,12 +1392,15 @@
       <c r="E9" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10">
         <v>1111</v>
       </c>
       <c r="C10" t="s">
@@ -1359,12 +1412,15 @@
       <c r="E10" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11">
         <v>1111</v>
       </c>
       <c r="C11" t="s">
@@ -1376,12 +1432,15 @@
       <c r="E11" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12">
         <v>1111</v>
       </c>
       <c r="C12" t="s">
@@ -1393,12 +1452,15 @@
       <c r="E12" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13">
         <v>1111</v>
       </c>
       <c r="C13" t="s">
@@ -1410,12 +1472,15 @@
       <c r="E13" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14">
         <v>1111</v>
       </c>
       <c r="C14" t="s">
@@ -1427,12 +1492,15 @@
       <c r="E14" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15">
         <v>1111</v>
       </c>
       <c r="C15" t="s">
@@ -1444,12 +1512,15 @@
       <c r="E15" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16">
         <v>1111</v>
       </c>
       <c r="C16" t="s">
@@ -1461,12 +1532,15 @@
       <c r="E16" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17">
         <v>1111</v>
       </c>
       <c r="C17" t="s">
@@ -1478,12 +1552,15 @@
       <c r="E17" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18">
         <v>1111</v>
       </c>
       <c r="C18" t="s">
@@ -1495,12 +1572,15 @@
       <c r="E18" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19">
         <v>1111</v>
       </c>
       <c r="C19" t="s">
@@ -1512,12 +1592,15 @@
       <c r="E19" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20">
         <v>1111</v>
       </c>
       <c r="C20" t="s">
@@ -1529,12 +1612,15 @@
       <c r="E20" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21">
         <v>1111</v>
       </c>
       <c r="C21" t="s">
@@ -1546,38 +1632,41 @@
       <c r="E21" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D32" s="2"/>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.3">
@@ -16489,7 +16578,13 @@
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{FED23605-C636-41EB-94AA-6BCDF9332C6E}"/>
+    <hyperlink ref="F3:F11" r:id="rId2" display="xiathelove@naver.com" xr:uid="{0D88C78F-C081-42CA-880C-4C5B07E8798C}"/>
+    <hyperlink ref="F12" r:id="rId3" xr:uid="{C7311FA1-3993-4B10-92C5-61AD2B707DAA}"/>
+    <hyperlink ref="F13:F21" r:id="rId4" display="dbskim234@naver.com" xr:uid="{B1772D5C-5D4F-47D2-A181-EBAECAABED02}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>